--- a/2_week_ml_plan.xlsx
+++ b/2_week_ml_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Anshu7/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BE5FB5-85BE-C64A-8BC0-106C81AC4AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E849053F-5D6D-6F4F-ADA8-9D0D1E322042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -529,13 +529,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,13 +543,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/2_week_ml_plan.xlsx
+++ b/2_week_ml_plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Anshu7/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Anshu7/Library/Mobile Documents/com~apple~CloudDocs/Sales-Prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BE5FB5-85BE-C64A-8BC0-106C81AC4AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F139D8AD-F2FC-3E41-90FA-EB5ABF55DF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,10 +174,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,14 +489,14 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="170.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -510,7 +513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -520,39 +523,39 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -562,11 +565,11 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -576,11 +579,11 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -590,11 +593,11 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -604,11 +607,11 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -618,11 +621,11 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -632,11 +635,11 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -646,11 +649,11 @@
       <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -660,7 +663,7 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
